--- a/export/a.xlsx
+++ b/export/a.xlsx
@@ -12,90 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Mã</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
     <t>Tên chuồng</t>
   </si>
   <si>
-    <t>Loài</t>
-  </si>
-  <si>
-    <t>Tuổi</t>
-  </si>
-  <si>
-    <t>Giới Tính</t>
+    <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Ngày tháng</t>
   </si>
   <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Ảnh</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Simba</t>
-  </si>
-  <si>
-    <t>Hổ</t>
-  </si>
-  <si>
-    <t>Sư tử</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Đực</t>
-  </si>
-  <si>
-    <t>Khoẻ mạnh</t>
-  </si>
-  <si>
-    <t>sutu.jpg</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Nala</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Kiara</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Timon</t>
-  </si>
-  <si>
-    <t>Cầy vằn</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>vuoncao.jpg</t>
+    <t>Mô tả chi tiết</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Huou Cao Co</t>
+  </si>
+  <si>
+    <t>Sua lai Add di</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 00:00:00 ICT 2024</t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Sat Mar 16 00:00:00 ICT 2024</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Fri Mar 15 00:00:00 ICT 2024</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Nhân viên ngoài</t>
+  </si>
+  <si>
+    <t>Thu Mar 14 00:00:00 ICT 2024</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>NV01</t>
+  </si>
+  <si>
+    <t>Wed Mar 13 00:00:00 ICT 2024</t>
   </si>
 </sst>
 </file>
@@ -183,20 +162,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.90625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.7890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.25" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.29296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="34.02734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.88671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -218,115 +195,105 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>11</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>27</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
